--- a/raw_data/20200818_saline/20200818_Sensor2_Test_67.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_67.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27080486-B495-4248-8C9A-C596CBFB66B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>59773.568367</v>
       </c>
@@ -481,919 +897,919 @@
         <v>16.603769</v>
       </c>
       <c r="C2" s="1">
-        <v>1249.050000</v>
+        <v>1249.05</v>
       </c>
       <c r="D2" s="1">
-        <v>-303.597000</v>
+        <v>-303.59699999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>59783.609378</v>
+        <v>59783.609378000001</v>
       </c>
       <c r="G2" s="1">
         <v>16.606558</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.160000</v>
+        <v>1273.1600000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-262.106000</v>
+        <v>-262.10599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>59794.045203</v>
+        <v>59794.045203000001</v>
       </c>
       <c r="L2" s="1">
-        <v>16.609457</v>
+        <v>16.609456999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.680000</v>
+        <v>1306.68</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.703000</v>
+        <v>-200.703</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>59804.555429</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.612377</v>
+        <v>16.612376999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.320000</v>
+        <v>1318.32</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.139000</v>
+        <v>-183.13900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>59814.808264</v>
+        <v>59814.808263999999</v>
       </c>
       <c r="V2" s="1">
-        <v>16.615225</v>
+        <v>16.615224999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.240000</v>
+        <v>1331.24</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.465000</v>
+        <v>-170.465</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>59825.244058</v>
+        <v>59825.244057999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.618123</v>
+        <v>16.618123000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1348.670000</v>
+        <v>1348.67</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.013000</v>
+        <v>-169.01300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>59835.837116</v>
+        <v>59835.837116000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.621066</v>
+        <v>16.621065999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1361.980000</v>
+        <v>1361.98</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.339000</v>
+        <v>-179.339</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>59846.303694</v>
+        <v>59846.303694000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.623973</v>
+        <v>16.623972999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.333000</v>
+        <v>-209.333</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>59857.205760</v>
+        <v>59857.205759999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.627002</v>
+        <v>16.627002000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.520000</v>
+        <v>1405.52</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.123000</v>
+        <v>-253.12299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>59868.155475</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.630043</v>
+        <v>16.630043000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1430.840000</v>
+        <v>1430.84</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.705000</v>
+        <v>-312.70499999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>59879.346211</v>
+        <v>59879.346210999996</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.633152</v>
+        <v>16.633151999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.295000</v>
+        <v>-364.29500000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>59890.383654</v>
+        <v>59890.383653999997</v>
       </c>
       <c r="BE2" s="1">
         <v>16.636218</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.250000</v>
+        <v>1538.25</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.238000</v>
+        <v>-609.23800000000006</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>59901.394341</v>
+        <v>59901.394340999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.639276</v>
+        <v>16.639275999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.260000</v>
+        <v>1695.26</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1046.470000</v>
+        <v>-1046.47</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>59912.377255</v>
+        <v>59912.377254999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.642327</v>
+        <v>16.642327000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.140000</v>
+        <v>1993.14</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1800.520000</v>
+        <v>-1800.52</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>59922.397435</v>
+        <v>59922.397434999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.645110</v>
+        <v>16.645109999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2384.160000</v>
+        <v>2384.16</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2668.680000</v>
+        <v>-2668.68</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>59933.187901</v>
+        <v>59933.187900999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.648108</v>
+        <v>16.648108000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2870.120000</v>
+        <v>2870.12</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3605.540000</v>
+        <v>-3605.54</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>59944.035405</v>
+        <v>59944.035405000002</v>
       </c>
       <c r="CD2" s="1">
         <v>16.651121</v>
       </c>
       <c r="CE2" s="1">
-        <v>4295.770000</v>
+        <v>4295.7700000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5846.780000</v>
+        <v>-5846.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>59773.998399</v>
+        <v>59773.998398999996</v>
       </c>
       <c r="B3" s="1">
-        <v>16.603888</v>
+        <v>16.603888000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1249.230000</v>
+        <v>1249.23</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.750000</v>
+        <v>-303.75</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>59784.030515</v>
+        <v>59784.030514999999</v>
       </c>
       <c r="G3" s="1">
-        <v>16.606675</v>
+        <v>16.606674999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.410000</v>
+        <v>1273.4100000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-261.977000</v>
+        <v>-261.97699999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>59794.448948</v>
+        <v>59794.448947999997</v>
       </c>
       <c r="L3" s="1">
         <v>16.609569</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.660000</v>
+        <v>1306.6600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.814000</v>
+        <v>-200.81399999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>59804.969131</v>
+        <v>59804.969130999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.612491</v>
+        <v>16.612490999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.360000</v>
+        <v>1318.36</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.216000</v>
+        <v>-183.21600000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>59815.183703</v>
+        <v>59815.183703000002</v>
       </c>
       <c r="V3" s="1">
-        <v>16.615329</v>
+        <v>16.615328999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.190000</v>
+        <v>1331.19</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.446000</v>
+        <v>-170.446</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>59825.633921</v>
+        <v>59825.633921000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.618232</v>
+        <v>16.618231999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.760000</v>
+        <v>1348.76</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.063000</v>
+        <v>-169.06299999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>59836.221551</v>
+        <v>59836.221551000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.621173</v>
+        <v>16.621172999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1361.930000</v>
+        <v>1361.93</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.083000</v>
+        <v>-179.083</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>59847.031497</v>
+        <v>59847.031497000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.624175</v>
+        <v>16.624175000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.160000</v>
+        <v>1383.16</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.333000</v>
+        <v>-209.333</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>59857.594134</v>
+        <v>59857.594133999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.627109</v>
+        <v>16.627109000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.480000</v>
+        <v>1405.48</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.163000</v>
+        <v>-253.16300000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>59868.551285</v>
+        <v>59868.551285000001</v>
       </c>
       <c r="AU3" s="1">
         <v>16.630153</v>
       </c>
       <c r="AV3" s="1">
-        <v>1430.890000</v>
+        <v>1430.89</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.734000</v>
+        <v>-312.73399999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>59879.743515</v>
+        <v>59879.743515000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.633262</v>
+        <v>16.633261999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.229000</v>
+        <v>-364.22899999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>59891.064691</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.636407</v>
+        <v>16.636406999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.201000</v>
+        <v>-609.20100000000002</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>59902.118045</v>
+        <v>59902.118045000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.639477</v>
+        <v>16.639476999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1046.470000</v>
+        <v>-1046.47</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>59912.488358</v>
+        <v>59912.488358000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.642358</v>
+        <v>16.642358000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.010000</v>
+        <v>1993.01</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1800.750000</v>
+        <v>-1800.75</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>59922.904841</v>
+        <v>59922.904841000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.645251</v>
+        <v>16.645250999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2384.780000</v>
+        <v>2384.7800000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2668.410000</v>
+        <v>-2668.41</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>59933.654139</v>
+        <v>59933.654138999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.648237</v>
+        <v>16.648237000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2869.920000</v>
+        <v>2869.92</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3605.810000</v>
+        <v>-3605.81</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>59944.611758</v>
+        <v>59944.611757999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.651281</v>
+        <v>16.651281000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4281.760000</v>
+        <v>4281.76</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5856.850000</v>
+        <v>-5856.85</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>59774.277645</v>
+        <v>59774.277645000002</v>
       </c>
       <c r="B4" s="1">
         <v>16.603966</v>
       </c>
       <c r="C4" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="D4" s="1">
-        <v>-303.771000</v>
+        <v>-303.77100000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>59784.336888</v>
+        <v>59784.336887999998</v>
       </c>
       <c r="G4" s="1">
-        <v>16.606760</v>
+        <v>16.606760000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.700000</v>
+        <v>1273.7</v>
       </c>
       <c r="I4" s="1">
-        <v>-262.006000</v>
+        <v>-262.00599999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>59794.794162</v>
+        <v>59794.794161999998</v>
       </c>
       <c r="L4" s="1">
         <v>16.609665</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.940000</v>
+        <v>1306.94</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.535000</v>
+        <v>-200.535</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>59805.316814</v>
+        <v>59805.316813999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.612588</v>
+        <v>16.612587999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.267000</v>
+        <v>-183.267</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>59815.523463</v>
+        <v>59815.523462999998</v>
       </c>
       <c r="V4" s="1">
         <v>16.615423</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.400000</v>
+        <v>1331.4</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.481000</v>
+        <v>-170.48099999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>59826.330298</v>
+        <v>59826.330298000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.618425</v>
+        <v>16.618424999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1348.620000</v>
+        <v>1348.62</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.119000</v>
+        <v>-169.119</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>59836.906986</v>
+        <v>59836.906986000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.621363</v>
+        <v>16.621362999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1361.700000</v>
+        <v>1361.7</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.313000</v>
+        <v>-179.31299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>59847.380510</v>
+        <v>59847.380510000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.624272</v>
+        <v>16.624272000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.333000</v>
+        <v>-209.333</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>59857.954719</v>
+        <v>59857.954719000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.627210</v>
+        <v>16.627210000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.500000</v>
+        <v>1405.5</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.119000</v>
+        <v>-253.119</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>59868.916837</v>
+        <v>59868.916836999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.630255</v>
+        <v>16.630254999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1430.870000</v>
+        <v>1430.87</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.676000</v>
+        <v>-312.67599999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>59880.411587</v>
+        <v>59880.411587000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.633448</v>
+        <v>16.633448000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1450.760000</v>
+        <v>1450.76</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.251000</v>
+        <v>-364.25099999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>59891.471380</v>
+        <v>59891.471380000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.636520</v>
+        <v>16.636520000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.140000</v>
+        <v>1538.14</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.230000</v>
+        <v>-609.23</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>59902.545556</v>
+        <v>59902.545555999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.639596</v>
+        <v>16.639596000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.050000</v>
+        <v>1695.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1046.540000</v>
+        <v>-1046.54</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>59912.906983</v>
+        <v>59912.906983000001</v>
       </c>
       <c r="BO4" s="1">
         <v>16.642474</v>
       </c>
       <c r="BP4" s="1">
-        <v>1992.720000</v>
+        <v>1992.72</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1800.770000</v>
+        <v>-1800.77</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>59923.334909</v>
+        <v>59923.334908999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.645371</v>
+        <v>16.645371000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2385.340000</v>
+        <v>2385.34</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2667.750000</v>
+        <v>-2667.75</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>59934.100540</v>
+        <v>59934.100539999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.648361</v>
+        <v>16.648361000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2868.890000</v>
+        <v>2868.89</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3606.070000</v>
+        <v>-3606.07</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>59945.146445</v>
+        <v>59945.146444999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.651430</v>
+        <v>16.651430000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4295.900000</v>
+        <v>4295.8999999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5846.990000</v>
+        <v>-5846.99</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>59774.618902</v>
+        <v>59774.618902000002</v>
       </c>
       <c r="B5" s="1">
-        <v>16.604061</v>
+        <v>16.604061000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1249.190000</v>
+        <v>1249.19</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.716000</v>
+        <v>-303.71600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>59784.679249</v>
+        <v>59784.679249000001</v>
       </c>
       <c r="G5" s="1">
-        <v>16.606855</v>
+        <v>16.606854999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.240000</v>
+        <v>1273.24</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.880000</v>
+        <v>-261.88</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>59795.141362</v>
+        <v>59795.141362000002</v>
       </c>
       <c r="L5" s="1">
-        <v>16.609761</v>
+        <v>16.609760999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.850000</v>
+        <v>1306.8499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.674000</v>
+        <v>-200.67400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>59805.894131</v>
+        <v>59805.894131000001</v>
       </c>
       <c r="Q5" s="1">
         <v>16.612748</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.290000</v>
+        <v>1318.29</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.286000</v>
+        <v>-183.286</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>59816.211414</v>
+        <v>59816.211413999998</v>
       </c>
       <c r="V5" s="1">
-        <v>16.615614</v>
+        <v>16.615614000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.310000</v>
+        <v>1331.31</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.688000</v>
+        <v>-170.68799999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>59826.678520</v>
+        <v>59826.678520000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.618522</v>
+        <v>16.618521999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1348.740000</v>
+        <v>1348.74</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.047000</v>
+        <v>-169.047</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>59837.251708</v>
+        <v>59837.251708000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.621459</v>
+        <v>16.621459000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1361.960000</v>
+        <v>1361.96</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.222000</v>
+        <v>-179.22200000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>59847.730685</v>
+        <v>59847.730685000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.624370</v>
+        <v>16.624369999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.150000</v>
+        <v>1383.15</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.314000</v>
+        <v>-209.31399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>59858.627295</v>
+        <v>59858.627294999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.627396</v>
+        <v>16.627396000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.510000</v>
+        <v>1405.51</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.095000</v>
+        <v>-253.095</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>59869.591392</v>
+        <v>59869.591392000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.630442</v>
+        <v>16.630441999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1430.870000</v>
+        <v>1430.87</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.676000</v>
+        <v>-312.67599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>59880.821312</v>
@@ -1402,240 +1818,240 @@
         <v>16.633561</v>
       </c>
       <c r="BA5" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.232000</v>
+        <v>-364.23200000000003</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>59891.861766</v>
+        <v>59891.861766000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.636628</v>
+        <v>16.636628000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.210000</v>
+        <v>-609.21</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>59902.920533</v>
+        <v>59902.920532999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.639700</v>
+        <v>16.639700000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.070000</v>
+        <v>1695.07</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1046.560000</v>
+        <v>-1046.56</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>59913.301798</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.642584</v>
+        <v>16.642583999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1992.670000</v>
+        <v>1992.67</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1800.700000</v>
+        <v>-1800.7</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>59923.764408</v>
+        <v>59923.764408000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.645490</v>
+        <v>16.645489999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2385.830000</v>
+        <v>2385.83</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2667.030000</v>
+        <v>-2667.03</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>59934.534537</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.648482</v>
+        <v>16.648482000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2868.860000</v>
+        <v>2868.86</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3606.180000</v>
+        <v>-3606.18</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>59945.662811</v>
+        <v>59945.662811000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.651573</v>
+        <v>16.651572999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4281.580000</v>
+        <v>4281.58</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5836.190000</v>
+        <v>-5836.19</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>59774.960178</v>
+        <v>59774.960178000001</v>
       </c>
       <c r="B6" s="1">
         <v>16.604156</v>
       </c>
       <c r="C6" s="1">
-        <v>1249.230000</v>
+        <v>1249.23</v>
       </c>
       <c r="D6" s="1">
-        <v>-303.938000</v>
+        <v>-303.93799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>59785.024495</v>
+        <v>59785.024494999998</v>
       </c>
       <c r="G6" s="1">
-        <v>16.606951</v>
+        <v>16.606950999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.370000</v>
+        <v>1272.3699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.349000</v>
+        <v>-262.34899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>59795.831297</v>
+        <v>59795.831296999997</v>
       </c>
       <c r="L6" s="1">
-        <v>16.609953</v>
+        <v>16.609953000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.750000</v>
+        <v>1306.75</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.621000</v>
+        <v>-200.62100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>59806.014200</v>
+        <v>59806.014199999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.612782</v>
+        <v>16.612781999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.290000</v>
+        <v>1318.29</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.318000</v>
+        <v>-183.31800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>59816.560136</v>
       </c>
       <c r="V6" s="1">
-        <v>16.615711</v>
+        <v>16.615711000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.370000</v>
+        <v>1331.37</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.488000</v>
+        <v>-170.488</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>59827.029191</v>
+        <v>59827.029191000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.618619</v>
+        <v>16.618618999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1348.830000</v>
+        <v>1348.83</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.004000</v>
+        <v>-169.00399999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>59837.596427</v>
+        <v>59837.596426999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.621555</v>
+        <v>16.621555000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1361.890000</v>
+        <v>1361.89</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.235000</v>
+        <v>-179.23500000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>59848.389869</v>
+        <v>59848.389868999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.624553</v>
+        <v>16.624552999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.150000</v>
+        <v>1383.15</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.319000</v>
+        <v>-209.31899999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>59859.055347</v>
+        <v>59859.055347000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.627515</v>
+        <v>16.627514999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.510000</v>
+        <v>1405.51</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.122000</v>
+        <v>-253.12200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>59870.044703</v>
@@ -1644,345 +2060,345 @@
         <v>16.630568</v>
       </c>
       <c r="AV6" s="1">
-        <v>1430.850000</v>
+        <v>1430.85</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.720000</v>
+        <v>-312.72000000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>59881.204720</v>
+        <v>59881.204720000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>16.633668</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.760000</v>
+        <v>1450.76</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.272000</v>
+        <v>-364.27199999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>59892.220867</v>
+        <v>59892.220867000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.636728</v>
+        <v>16.636728000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.220000</v>
+        <v>1538.22</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.213000</v>
+        <v>-609.21299999999997</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>59903.296995</v>
+        <v>59903.296994999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.639805</v>
+        <v>16.639804999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.110000</v>
+        <v>1695.11</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1046.430000</v>
+        <v>-1046.43</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>59913.733319</v>
+        <v>59913.733318999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.642704</v>
+        <v>16.642703999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1992.880000</v>
+        <v>1992.88</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1800.740000</v>
+        <v>-1800.74</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>59924.178597</v>
+        <v>59924.178596999998</v>
       </c>
       <c r="BT6" s="1">
         <v>16.645605</v>
       </c>
       <c r="BU6" s="1">
-        <v>2385.740000</v>
+        <v>2385.7399999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2665.940000</v>
+        <v>-2665.94</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>59934.955642</v>
+        <v>59934.955642000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.648599</v>
+        <v>16.648599000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2869.410000</v>
+        <v>2869.41</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3606.040000</v>
+        <v>-3606.04</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>59946.179610</v>
+        <v>59946.179609999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.651717</v>
+        <v>16.651717000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4274.040000</v>
+        <v>4274.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5851.120000</v>
+        <v>-5851.12</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>59775.643628</v>
+        <v>59775.643627999998</v>
       </c>
       <c r="B7" s="1">
-        <v>16.604345</v>
+        <v>16.604344999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="D7" s="1">
-        <v>-303.657000</v>
+        <v>-303.65699999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>59785.711950</v>
+        <v>59785.711949999997</v>
       </c>
       <c r="G7" s="1">
         <v>16.607142</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.580000</v>
+        <v>1273.58</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.721000</v>
+        <v>-261.721</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>59796.180977</v>
+        <v>59796.180977000004</v>
       </c>
       <c r="L7" s="1">
-        <v>16.610050</v>
+        <v>16.610050000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.830000</v>
+        <v>1306.83</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.827000</v>
+        <v>-200.827</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>59806.360406</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.612878</v>
+        <v>16.612877999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.220000</v>
+        <v>1318.22</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.259000</v>
+        <v>-183.25899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>59816.903333</v>
+        <v>59816.903333000002</v>
       </c>
       <c r="V7" s="1">
-        <v>16.615806</v>
+        <v>16.615805999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.130000</v>
+        <v>1331.13</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.433000</v>
+        <v>-170.43299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>59827.690856</v>
+        <v>59827.690856000001</v>
       </c>
       <c r="AA7" s="1">
         <v>16.618803</v>
       </c>
       <c r="AB7" s="1">
-        <v>1348.670000</v>
+        <v>1348.67</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.122000</v>
+        <v>-169.12200000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>59838.302730</v>
+        <v>59838.302730000003</v>
       </c>
       <c r="AF7" s="1">
         <v>16.621751</v>
       </c>
       <c r="AG7" s="1">
-        <v>1361.920000</v>
+        <v>1361.92</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.174000</v>
+        <v>-179.17400000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>59848.773312</v>
+        <v>59848.773311999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.624659</v>
+        <v>16.624659000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.309000</v>
+        <v>-209.309</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>59859.414445</v>
+        <v>59859.414445000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.627615</v>
+        <v>16.627614999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.490000</v>
+        <v>1405.49</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.084000</v>
+        <v>-253.084</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>59870.411247</v>
+        <v>59870.411246999996</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.630670</v>
+        <v>16.630669999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1430.820000</v>
+        <v>1430.82</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.705000</v>
+        <v>-312.70499999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>59881.566301</v>
+        <v>59881.566300999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>16.633768</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.232000</v>
+        <v>-364.23200000000003</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>59892.647889</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.636847</v>
+        <v>16.636846999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.210000</v>
+        <v>1538.21</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.221000</v>
+        <v>-609.221</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>59903.741448</v>
+        <v>59903.741448000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.639928</v>
+        <v>16.639928000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.140000</v>
+        <v>1695.14</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1046.540000</v>
+        <v>-1046.54</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>59914.117221</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.642810</v>
+        <v>16.642810000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1992.670000</v>
+        <v>1992.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1800.630000</v>
+        <v>-1800.63</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>59924.608600</v>
+        <v>59924.6086</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.645725</v>
+        <v>16.645724999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2385.330000</v>
+        <v>2385.33</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2665.270000</v>
+        <v>-2665.27</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>59935.376248</v>
@@ -1991,512 +2407,512 @@
         <v>16.648716</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2868.660000</v>
+        <v>2868.66</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3605.110000</v>
+        <v>-3605.11</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>59946.698922</v>
+        <v>59946.698922000003</v>
       </c>
       <c r="CD7" s="1">
         <v>16.651861</v>
       </c>
       <c r="CE7" s="1">
-        <v>4276.370000</v>
+        <v>4276.37</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5844.770000</v>
+        <v>-5844.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>59775.985373</v>
+        <v>59775.985373000003</v>
       </c>
       <c r="B8" s="1">
-        <v>16.604440</v>
+        <v>16.60444</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.810000</v>
+        <v>1248.81</v>
       </c>
       <c r="D8" s="1">
-        <v>-303.272000</v>
+        <v>-303.27199999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>59786.058640</v>
+        <v>59786.058640000003</v>
       </c>
       <c r="G8" s="1">
         <v>16.607239</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.110000</v>
+        <v>1273.1099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-262.515000</v>
+        <v>-262.51499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>59796.529703</v>
       </c>
       <c r="L8" s="1">
-        <v>16.610147</v>
+        <v>16.610147000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.130000</v>
+        <v>1307.1300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.000000</v>
+        <v>-201</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>59807.016611</v>
+        <v>59807.016610999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.613060</v>
+        <v>16.613060000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.290000</v>
+        <v>1318.29</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.207000</v>
+        <v>-183.20699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>59817.561525</v>
+        <v>59817.561524999997</v>
       </c>
       <c r="V8" s="1">
-        <v>16.615989</v>
+        <v>16.615988999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.340000</v>
+        <v>1331.34</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.592000</v>
+        <v>-170.59200000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>59828.073734</v>
+        <v>59828.073733999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.618909</v>
+        <v>16.618908999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.710000</v>
+        <v>1348.71</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.058000</v>
+        <v>-169.05799999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>59838.642521</v>
+        <v>59838.642521000002</v>
       </c>
       <c r="AF8" s="1">
         <v>16.621845</v>
       </c>
       <c r="AG8" s="1">
-        <v>1361.960000</v>
+        <v>1361.96</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.185000</v>
+        <v>-179.185</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>59849.124444</v>
+        <v>59849.124444000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.624757</v>
+        <v>16.624756999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.331000</v>
+        <v>-209.33099999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>59859.774058</v>
+        <v>59859.774058000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.627715</v>
+        <v>16.627714999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.520000</v>
+        <v>1405.52</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.100000</v>
+        <v>-253.1</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>59870.771343</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.630770</v>
+        <v>16.630769999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1430.820000</v>
+        <v>1430.82</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.698000</v>
+        <v>-312.69799999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>59881.997331</v>
+        <v>59881.997330999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.633888</v>
+        <v>16.633887999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.241000</v>
+        <v>-364.24099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>59892.945984</v>
+        <v>59892.945983999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.636929</v>
+        <v>16.636928999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.210000</v>
+        <v>-609.21</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>59904.046491</v>
+        <v>59904.046491000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>16.640013</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.050000</v>
+        <v>1695.05</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1046.420000</v>
+        <v>-1046.42</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>59914.537864</v>
+        <v>59914.537863999998</v>
       </c>
       <c r="BO8" s="1">
         <v>16.642927</v>
       </c>
       <c r="BP8" s="1">
-        <v>1992.740000</v>
+        <v>1992.74</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1800.530000</v>
+        <v>-1800.53</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>59925.019323</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.645839</v>
+        <v>16.645838999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2384.420000</v>
+        <v>2384.42</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2664.440000</v>
+        <v>-2664.44</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>59935.803304</v>
+        <v>59935.803304000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.648834</v>
+        <v>16.648834000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2868.440000</v>
+        <v>2868.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3605.880000</v>
+        <v>-3605.88</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>59947.251992</v>
+        <v>59947.251991999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.652014</v>
+        <v>16.652014000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4277.610000</v>
+        <v>4277.6099999999997</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5837.880000</v>
+        <v>-5837.88</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>59776.328604</v>
+        <v>59776.328604000002</v>
       </c>
       <c r="B9" s="1">
         <v>16.604536</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.847000</v>
+        <v>-303.84699999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>59786.404871</v>
+        <v>59786.404870999999</v>
       </c>
       <c r="G9" s="1">
-        <v>16.607335</v>
+        <v>16.607334999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.380000</v>
+        <v>1273.3800000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.126000</v>
+        <v>-262.12599999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>59797.175951</v>
+        <v>59797.175950999997</v>
       </c>
       <c r="L9" s="1">
-        <v>16.610327</v>
+        <v>16.610327000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.730000</v>
+        <v>1306.73</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.635000</v>
+        <v>-200.63499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>59807.407425</v>
+        <v>59807.407424999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.613169</v>
+        <v>16.613168999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.330000</v>
+        <v>1318.33</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.240000</v>
+        <v>-183.24</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>59817.934052</v>
+        <v>59817.934051999997</v>
       </c>
       <c r="V9" s="1">
-        <v>16.616093</v>
+        <v>16.616092999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.270000</v>
+        <v>1331.27</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.438000</v>
+        <v>-170.43799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>59828.422918</v>
+        <v>59828.422917999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.619006</v>
+        <v>16.619005999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1348.760000</v>
+        <v>1348.76</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.107000</v>
+        <v>-169.107</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>59838.986749</v>
+        <v>59838.986749000003</v>
       </c>
       <c r="AF9" s="1">
         <v>16.621941</v>
       </c>
       <c r="AG9" s="1">
-        <v>1361.900000</v>
+        <v>1361.9</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.164000</v>
+        <v>-179.16399999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>59849.472139</v>
+        <v>59849.472138999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.624853</v>
+        <v>16.624853000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.321000</v>
+        <v>-209.321</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>59860.194158</v>
+        <v>59860.194157999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.627832</v>
+        <v>16.627832000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.111000</v>
+        <v>-253.11099999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>59871.238573</v>
+        <v>59871.238573000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.630900</v>
+        <v>16.6309</v>
       </c>
       <c r="AV9" s="1">
-        <v>1430.820000</v>
+        <v>1430.82</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.690000</v>
+        <v>-312.69</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>59882.281999</v>
+        <v>59882.281998999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.633967</v>
+        <v>16.633966999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.271000</v>
+        <v>-364.27100000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>59893.303600</v>
+        <v>59893.303599999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.637029</v>
+        <v>16.637028999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.190000</v>
+        <v>1538.19</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.143000</v>
+        <v>-609.14300000000003</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>59904.430356</v>
+        <v>59904.430355999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.640120</v>
+        <v>16.64012</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.050000</v>
+        <v>1695.05</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1046.460000</v>
+        <v>-1046.46</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>59914.934163</v>
+        <v>59914.934162999998</v>
       </c>
       <c r="BO9" s="1">
         <v>16.643037</v>
       </c>
       <c r="BP9" s="1">
-        <v>1992.750000</v>
+        <v>1992.75</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1800.660000</v>
+        <v>-1800.66</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>59925.445846</v>
+        <v>59925.445846000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.645957</v>
+        <v>16.645956999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2383.730000</v>
+        <v>2383.73</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2663.920000</v>
+        <v>-2663.92</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>59936.222424</v>
@@ -2505,45 +2921,45 @@
         <v>16.648951</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2869.430000</v>
+        <v>2869.43</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3605.720000</v>
+        <v>-3605.72</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>59947.783176</v>
+        <v>59947.783175999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.652162</v>
+        <v>16.652162000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4276.210000</v>
+        <v>4276.21</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5855.050000</v>
+        <v>-5855.05</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>59776.981834</v>
+        <v>59776.981833999998</v>
       </c>
       <c r="B10" s="1">
-        <v>16.604717</v>
+        <v>16.604717000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.870000</v>
+        <v>1248.8699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-303.605000</v>
+        <v>-303.60500000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>59787.058589</v>
@@ -2552,315 +2968,315 @@
         <v>16.607516</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.960000</v>
+        <v>1272.96</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.797000</v>
+        <v>-261.79700000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>59797.562376</v>
+        <v>59797.562376000002</v>
       </c>
       <c r="L10" s="1">
-        <v>16.610434</v>
+        <v>16.610434000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.100000</v>
+        <v>1307.0999999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.478000</v>
+        <v>-200.47800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>59807.754625</v>
+        <v>59807.754625000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.613265</v>
+        <v>16.613264999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.330000</v>
+        <v>1318.33</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.276000</v>
+        <v>-183.27600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>59818.273285</v>
+        <v>59818.273285000003</v>
       </c>
       <c r="V10" s="1">
         <v>16.616187</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.240000</v>
+        <v>1331.24</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.502000</v>
+        <v>-170.50200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>59828.770118</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.619103</v>
+        <v>16.619102999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1348.700000</v>
+        <v>1348.7</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.085000</v>
+        <v>-169.08500000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>59839.406825</v>
+        <v>59839.406824999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.622057</v>
+        <v>16.622057000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.020000</v>
+        <v>1362.02</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.017000</v>
+        <v>-179.017</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>59849.897235</v>
+        <v>59849.897234999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.624971</v>
+        <v>16.624970999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.309000</v>
+        <v>-209.309</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>59860.498735</v>
+        <v>59860.498735000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.627916</v>
+        <v>16.627915999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.072000</v>
+        <v>-253.072</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>59871.502445</v>
+        <v>59871.502444999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.630973</v>
+        <v>16.630973000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1430.880000</v>
+        <v>1430.88</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.659000</v>
+        <v>-312.65899999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>59882.642590</v>
+        <v>59882.642590000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.634067</v>
+        <v>16.634067000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.760000</v>
+        <v>1450.76</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.225000</v>
+        <v>-364.22500000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>59893.664720</v>
+        <v>59893.664720000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.637129</v>
+        <v>16.637129000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.183000</v>
+        <v>-609.18299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>59905.031008</v>
+        <v>59905.031007999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>16.640286</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.130000</v>
+        <v>1695.13</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1046.300000</v>
+        <v>-1046.3</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>59915.358212</v>
+        <v>59915.358211999999</v>
       </c>
       <c r="BO10" s="1">
         <v>16.643155</v>
       </c>
       <c r="BP10" s="1">
-        <v>1992.810000</v>
+        <v>1992.81</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1800.540000</v>
+        <v>-1800.54</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>59925.878390</v>
+        <v>59925.878389999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.646077</v>
+        <v>16.646076999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.640000</v>
+        <v>2382.64</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2663.660000</v>
+        <v>-2663.66</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>59936.665351</v>
+        <v>59936.665351000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.649074</v>
+        <v>16.649073999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2868.700000</v>
+        <v>2868.7</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3605.430000</v>
+        <v>-3605.43</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>59948.298519</v>
+        <v>59948.298519000004</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.652305</v>
+        <v>16.652304999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4291.560000</v>
+        <v>4291.5600000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5853.480000</v>
+        <v>-5853.48</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>59777.349897</v>
       </c>
       <c r="B11" s="1">
-        <v>16.604819</v>
+        <v>16.604818999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.729000</v>
+        <v>-303.72899999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>59787.437500</v>
+        <v>59787.4375</v>
       </c>
       <c r="G11" s="1">
-        <v>16.607622</v>
+        <v>16.607621999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.140000</v>
+        <v>1273.1400000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.311000</v>
+        <v>-261.31099999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>59797.909534</v>
+        <v>59797.909533999999</v>
       </c>
       <c r="L11" s="1">
-        <v>16.610530</v>
+        <v>16.610530000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.980000</v>
+        <v>1306.98</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.579000</v>
+        <v>-200.57900000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>59808.100833</v>
+        <v>59808.100832999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.613361</v>
+        <v>16.613361000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.230000</v>
+        <v>1318.23</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.274000</v>
+        <v>-183.274</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>59818.618004</v>
+        <v>59818.618004000004</v>
       </c>
       <c r="V11" s="1">
-        <v>16.616283</v>
+        <v>16.616282999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.220000</v>
+        <v>1331.22</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.336000</v>
+        <v>-170.33600000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>59829.186295</v>
@@ -2869,285 +3285,285 @@
         <v>16.619218</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.650000</v>
+        <v>1348.65</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.073000</v>
+        <v>-169.07300000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>59839.683592</v>
+        <v>59839.683592000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.622134</v>
+        <v>16.622133999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.080000</v>
+        <v>1362.08</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.122000</v>
+        <v>-179.12200000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>59850.192329</v>
+        <v>59850.192328999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.625053</v>
+        <v>16.625053000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.297000</v>
+        <v>-209.297</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>59860.856316</v>
+        <v>59860.856315999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.628016</v>
+        <v>16.628015999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.500000</v>
+        <v>1405.5</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.121000</v>
+        <v>-253.12100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>59871.867532</v>
+        <v>59871.867531999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.631074</v>
+        <v>16.631074000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1430.790000</v>
+        <v>1430.79</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.665000</v>
+        <v>-312.66500000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>59883.000740</v>
+        <v>59883.000740000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.634167</v>
+        <v>16.634167000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.288000</v>
+        <v>-364.28800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>59894.384879</v>
+        <v>59894.384878999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.637329</v>
+        <v>16.637329000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.129000</v>
+        <v>-609.12900000000002</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>59905.194726</v>
+        <v>59905.194726000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.640332</v>
+        <v>16.640332000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.030000</v>
+        <v>1695.03</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1046.410000</v>
+        <v>-1046.4100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>59915.754549</v>
+        <v>59915.754548999997</v>
       </c>
       <c r="BO11" s="1">
         <v>16.643265</v>
       </c>
       <c r="BP11" s="1">
-        <v>1992.650000</v>
+        <v>1992.65</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1800.600000</v>
+        <v>-1800.6</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>59926.288054</v>
+        <v>59926.288053999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.646191</v>
+        <v>16.646191000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>2381.720000</v>
+        <v>2381.7199999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2664.140000</v>
+        <v>-2664.14</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>59937.089934</v>
+        <v>59937.089934000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.649192</v>
+        <v>16.649191999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2868.450000</v>
+        <v>2868.45</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3605.610000</v>
+        <v>-3605.61</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>59949.122188</v>
+        <v>59949.122188000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.652534</v>
+        <v>16.652533999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4288.310000</v>
+        <v>4288.3100000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5839.420000</v>
+        <v>-5839.42</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>59777.695612</v>
+        <v>59777.695612000003</v>
       </c>
       <c r="B12" s="1">
-        <v>16.604915</v>
+        <v>16.604914999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.870000</v>
+        <v>1248.8699999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-303.709000</v>
+        <v>-303.709</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>59787.781724</v>
       </c>
       <c r="G12" s="1">
-        <v>16.607717</v>
+        <v>16.607717000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.900000</v>
+        <v>1272.9000000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-261.418000</v>
+        <v>-261.41800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>59798.258223</v>
+        <v>59798.258222999997</v>
       </c>
       <c r="L12" s="1">
-        <v>16.610627</v>
+        <v>16.610627000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.790000</v>
+        <v>1306.79</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.903000</v>
+        <v>-200.90299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>59808.523920</v>
+        <v>59808.52392</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.613479</v>
+        <v>16.613479000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.290000</v>
+        <v>1318.29</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.180000</v>
+        <v>-183.18</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>59819.035666</v>
+        <v>59819.035666000003</v>
       </c>
       <c r="V12" s="1">
-        <v>16.616399</v>
+        <v>16.616399000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.477000</v>
+        <v>-170.477</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>59829.484365</v>
+        <v>59829.484364999997</v>
       </c>
       <c r="AA12" s="1">
         <v>16.619301</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.700000</v>
+        <v>1348.7</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.039000</v>
+        <v>-169.03899999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>59840.031783</v>
+        <v>59840.031782999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.622231</v>
+        <v>16.622230999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1361.960000</v>
+        <v>1361.96</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.890000</v>
+        <v>-178.89</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>59850.538041</v>
@@ -3156,118 +3572,118 @@
         <v>16.625149</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.362000</v>
+        <v>-209.36199999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>59861.217404</v>
+        <v>59861.217404000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.628116</v>
+        <v>16.628115999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.480000</v>
+        <v>1405.48</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.078000</v>
+        <v>-253.078</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>59872.595164</v>
+        <v>59872.595163999998</v>
       </c>
       <c r="AU12" s="1">
         <v>16.631276</v>
       </c>
       <c r="AV12" s="1">
-        <v>1430.830000</v>
+        <v>1430.83</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.651000</v>
+        <v>-312.65100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>59883.710479</v>
+        <v>59883.710479000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.634364</v>
+        <v>16.634364000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.202000</v>
+        <v>-364.202</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>59894.752416</v>
+        <v>59894.752416000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.637431</v>
+        <v>16.637430999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.189000</v>
+        <v>-609.18899999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>59905.569205</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.640436</v>
+        <v>16.640436000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.120000</v>
+        <v>1695.12</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1046.490000</v>
+        <v>-1046.49</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>59916.174138</v>
+        <v>59916.174138000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.643382</v>
+        <v>16.643381999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1992.630000</v>
+        <v>1992.63</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1800.500000</v>
+        <v>-1800.5</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>59927.031061</v>
+        <v>59927.031061000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.646398</v>
+        <v>16.646398000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2381.140000</v>
+        <v>2381.14</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2664.750000</v>
+        <v>-2664.75</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>59937.668263</v>
@@ -3276,1587 +3692,1587 @@
         <v>16.649352</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2868.360000</v>
+        <v>2868.36</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3605.350000</v>
+        <v>-3605.35</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>59949.366935</v>
+        <v>59949.366934999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.652602</v>
+        <v>16.652602000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>4275.590000</v>
+        <v>4275.59</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5848.920000</v>
+        <v>-5848.92</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>59778.037818</v>
+        <v>59778.037817999997</v>
       </c>
       <c r="B13" s="1">
-        <v>16.605011</v>
+        <v>16.605011000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.596000</v>
+        <v>-303.596</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>59788.127932</v>
+        <v>59788.127932000003</v>
       </c>
       <c r="G13" s="1">
         <v>16.607813</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.620000</v>
+        <v>1272.6199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-261.721000</v>
+        <v>-261.721</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>59798.678858</v>
+        <v>59798.678857999999</v>
       </c>
       <c r="L13" s="1">
         <v>16.610744</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.870000</v>
+        <v>1306.8699999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.882000</v>
+        <v>-200.88200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>59808.803705</v>
+        <v>59808.803704999998</v>
       </c>
       <c r="Q13" s="1">
         <v>16.613557</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.210000</v>
+        <v>1318.21</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.184000</v>
+        <v>-183.184</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>59819.309458</v>
+        <v>59819.309458000003</v>
       </c>
       <c r="V13" s="1">
-        <v>16.616475</v>
+        <v>16.616475000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.413000</v>
+        <v>-170.41300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>59829.833550</v>
+        <v>59829.833550000003</v>
       </c>
       <c r="AA13" s="1">
         <v>16.619398</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.810000</v>
+        <v>1348.81</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.053000</v>
+        <v>-169.053</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>59840.372038</v>
+        <v>59840.372038000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.622326</v>
+        <v>16.622326000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1361.910000</v>
+        <v>1361.91</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.171000</v>
+        <v>-179.17099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>59850.883785</v>
+        <v>59850.883784999998</v>
       </c>
       <c r="AK13" s="1">
         <v>16.625245</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.334000</v>
+        <v>-209.334</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>59861.937595</v>
+        <v>59861.937595000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.628316</v>
+        <v>16.628316000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.500000</v>
+        <v>1405.5</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.064000</v>
+        <v>-253.06399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>59872.983003</v>
+        <v>59872.983003000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.631384</v>
+        <v>16.631384000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1430.850000</v>
+        <v>1430.85</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.693000</v>
+        <v>-312.69299999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>59884.098350</v>
+        <v>59884.09835</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.634472</v>
+        <v>16.634471999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1450.740000</v>
+        <v>1450.74</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.246000</v>
+        <v>-364.24599999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>59895.112015</v>
+        <v>59895.112014999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.637531</v>
+        <v>16.637530999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.163000</v>
+        <v>-609.16300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>59906.265553</v>
+        <v>59906.265552999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.640629</v>
+        <v>16.640629000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.070000</v>
+        <v>1695.07</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1046.380000</v>
+        <v>-1046.3800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>59916.878945</v>
+        <v>59916.878944999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.643577</v>
+        <v>16.643577000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1992.740000</v>
+        <v>1992.74</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1800.540000</v>
+        <v>-1800.54</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>59927.147620</v>
+        <v>59927.147620000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.646430</v>
+        <v>16.646429999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2380.570000</v>
+        <v>2380.5700000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2665.600000</v>
+        <v>-2665.6</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>59937.959413</v>
+        <v>59937.959412999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.649433</v>
+        <v>16.649432999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2868.590000</v>
+        <v>2868.59</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3605.610000</v>
+        <v>-3605.61</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>59949.898117</v>
+        <v>59949.898116999997</v>
       </c>
       <c r="CD13" s="1">
         <v>16.652749</v>
       </c>
       <c r="CE13" s="1">
-        <v>4295.550000</v>
+        <v>4295.55</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5850.080000</v>
+        <v>-5850.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>59778.460905</v>
       </c>
       <c r="B14" s="1">
-        <v>16.605128</v>
+        <v>16.605128000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.910000</v>
+        <v>1248.9100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-303.798000</v>
+        <v>-303.798</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>59788.553997</v>
+        <v>59788.553997000003</v>
       </c>
       <c r="G14" s="1">
-        <v>16.607932</v>
+        <v>16.607932000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.810000</v>
+        <v>1272.81</v>
       </c>
       <c r="I14" s="1">
-        <v>-261.741000</v>
+        <v>-261.74099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>59798.959566</v>
+        <v>59798.959565999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.610822</v>
+        <v>16.610821999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.850000</v>
+        <v>-200.85</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>59809.156320</v>
+        <v>59809.156320000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.613655</v>
+        <v>16.613655000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.320000</v>
+        <v>1318.32</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.183000</v>
+        <v>-183.18299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>59819.656129</v>
+        <v>59819.656129000003</v>
       </c>
       <c r="V14" s="1">
         <v>16.616571</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.180000</v>
+        <v>1331.18</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.298000</v>
+        <v>-170.298</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>59830.183718</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.619495</v>
+        <v>16.619495000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1348.610000</v>
+        <v>1348.61</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.031000</v>
+        <v>-169.03100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>59841.056519</v>
+        <v>59841.056518999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.622516</v>
+        <v>16.622516000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1361.940000</v>
+        <v>1361.94</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.199000</v>
+        <v>-179.19900000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>59851.579145</v>
+        <v>59851.579145000003</v>
       </c>
       <c r="AK14" s="1">
         <v>16.625439</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.341000</v>
+        <v>-209.34100000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>59862.326987</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.628424</v>
+        <v>16.628423999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.510000</v>
+        <v>1405.51</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.102000</v>
+        <v>-253.102</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>59873.350540</v>
+        <v>59873.350539999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.631486</v>
+        <v>16.631485999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1430.820000</v>
+        <v>1430.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.674000</v>
+        <v>-312.67399999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>59884.474844</v>
+        <v>59884.474843999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.634576</v>
+        <v>16.634575999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.227000</v>
+        <v>-364.22699999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>59895.784093</v>
+        <v>59895.784093000002</v>
       </c>
       <c r="BE14" s="1">
         <v>16.637718</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.159000</v>
+        <v>-609.15899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>59906.696607</v>
+        <v>59906.696606999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>16.640749</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.030000</v>
+        <v>1695.03</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1046.340000</v>
+        <v>-1046.3399999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>59916.991724</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.643609</v>
+        <v>16.643609000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1992.650000</v>
+        <v>1992.65</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1800.360000</v>
+        <v>-1800.36</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>59927.585587</v>
+        <v>59927.585587000001</v>
       </c>
       <c r="BT14" s="1">
         <v>16.646552</v>
       </c>
       <c r="BU14" s="1">
-        <v>2380.650000</v>
+        <v>2380.65</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2666.570000</v>
+        <v>-2666.57</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>59938.392918</v>
+        <v>59938.392917999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.649554</v>
+        <v>16.649553999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2868.760000</v>
+        <v>2868.76</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3604.430000</v>
+        <v>-3604.43</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>59950.440245</v>
+        <v>59950.440244999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.652900</v>
+        <v>16.652899999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4273.750000</v>
+        <v>4273.75</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5839.640000</v>
+        <v>-5839.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>59778.739655</v>
+        <v>59778.739654999998</v>
       </c>
       <c r="B15" s="1">
-        <v>16.605205</v>
+        <v>16.605205000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.900000</v>
+        <v>1248.9000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-303.841000</v>
+        <v>-303.84100000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>59788.815424</v>
       </c>
       <c r="G15" s="1">
-        <v>16.608004</v>
+        <v>16.608004000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.580000</v>
+        <v>1273.58</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.219000</v>
+        <v>-262.21899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>59799.305276</v>
+        <v>59799.305275999999</v>
       </c>
       <c r="L15" s="1">
-        <v>16.610918</v>
+        <v>16.610918000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.970000</v>
+        <v>1306.97</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.730000</v>
+        <v>-200.73</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>59809.505503</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.613752</v>
+        <v>16.613752000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.350000</v>
+        <v>1318.35</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.295000</v>
+        <v>-183.29499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>59819.997873</v>
       </c>
       <c r="V15" s="1">
-        <v>16.616666</v>
+        <v>16.616665999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.140000</v>
+        <v>1331.14</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.307000</v>
+        <v>-170.30699999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>59830.877655</v>
+        <v>59830.877654999997</v>
       </c>
       <c r="AA15" s="1">
         <v>16.619688</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.560000</v>
+        <v>1348.56</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.946000</v>
+        <v>-168.946</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>59841.402757</v>
+        <v>59841.402757000003</v>
       </c>
       <c r="AF15" s="1">
         <v>16.622612</v>
       </c>
       <c r="AG15" s="1">
-        <v>1361.910000</v>
+        <v>1361.91</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.306000</v>
+        <v>-179.30600000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>59851.927866</v>
+        <v>59851.927865999998</v>
       </c>
       <c r="AK15" s="1">
         <v>16.625536</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.337000</v>
+        <v>-209.33699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>59862.703418</v>
+        <v>59862.703417999997</v>
       </c>
       <c r="AP15" s="1">
         <v>16.628529</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.480000</v>
+        <v>1405.48</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.054000</v>
+        <v>-253.054</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>59874.028905</v>
+        <v>59874.028904999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.631675</v>
+        <v>16.631675000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1430.830000</v>
+        <v>1430.83</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.680000</v>
+        <v>-312.68</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>59885.139978</v>
+        <v>59885.139977999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.634761</v>
+        <v>16.634761000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.760000</v>
+        <v>1450.76</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.259000</v>
+        <v>-364.25900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>59896.220573</v>
+        <v>59896.220572999999</v>
       </c>
       <c r="BE15" s="1">
         <v>16.637839</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.190000</v>
+        <v>1538.19</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.110000</v>
+        <v>-609.11</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>59907.071059</v>
+        <v>59907.071059000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>16.640853</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.080000</v>
+        <v>1695.08</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1046.320000</v>
+        <v>-1046.32</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>59917.413632</v>
+        <v>59917.413632000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.643726</v>
+        <v>16.643726000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1992.710000</v>
+        <v>1992.71</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1800.450000</v>
+        <v>-1800.45</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>59927.999776</v>
+        <v>59927.999775999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.646667</v>
+        <v>16.646667000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2381.030000</v>
+        <v>2381.0300000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2667.220000</v>
+        <v>-2667.22</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>59938.816500</v>
+        <v>59938.816500000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.649671</v>
+        <v>16.649671000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2867.960000</v>
+        <v>2867.96</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3605.170000</v>
+        <v>-3605.17</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>59950.980885</v>
+        <v>59950.980884999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.653050</v>
+        <v>16.65305</v>
       </c>
       <c r="CE15" s="1">
-        <v>4287.350000</v>
+        <v>4287.3500000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5854.980000</v>
+        <v>-5854.98</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>59779.079416</v>
       </c>
       <c r="B16" s="1">
-        <v>16.605300</v>
+        <v>16.6053</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="D16" s="1">
-        <v>-303.923000</v>
+        <v>-303.923</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>59789.161595</v>
+        <v>59789.161594999998</v>
       </c>
       <c r="G16" s="1">
-        <v>16.608100</v>
+        <v>16.6081</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.520000</v>
+        <v>1274.52</v>
       </c>
       <c r="I16" s="1">
-        <v>-262.574000</v>
+        <v>-262.57400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>59799.653964</v>
+        <v>59799.653963999997</v>
       </c>
       <c r="L16" s="1">
-        <v>16.611015</v>
+        <v>16.611014999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.940000</v>
+        <v>1306.94</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.656000</v>
+        <v>-200.65600000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>59810.201921</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.613945</v>
+        <v>16.613945000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.300000</v>
+        <v>1318.3</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.241000</v>
+        <v>-183.24100000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>59820.687312</v>
+        <v>59820.687312000002</v>
       </c>
       <c r="V16" s="1">
-        <v>16.616858</v>
+        <v>16.616858000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.548000</v>
+        <v>-170.548</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>59831.230770</v>
+        <v>59831.230770000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.619786</v>
+        <v>16.619786000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.650000</v>
+        <v>1348.65</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.108000</v>
+        <v>-169.108</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>59841.745461</v>
+        <v>59841.745460999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.622707</v>
+        <v>16.622706999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1361.720000</v>
+        <v>1361.72</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.204000</v>
+        <v>-179.20400000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>59852.274569</v>
+        <v>59852.274569000001</v>
       </c>
       <c r="AK16" s="1">
         <v>16.625632</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.323000</v>
+        <v>-209.32300000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>59863.366108</v>
+        <v>59863.366108000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.628713</v>
+        <v>16.628713000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.490000</v>
+        <v>1405.49</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.084000</v>
+        <v>-253.084</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>59874.476980</v>
+        <v>59874.476979999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.631799</v>
+        <v>16.631799000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.890000</v>
+        <v>1430.89</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.623000</v>
+        <v>-312.62299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>59885.557579</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.634877</v>
+        <v>16.634876999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.220000</v>
+        <v>-364.22</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>59896.580668</v>
+        <v>59896.580668000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.637939</v>
+        <v>16.637938999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.118000</v>
+        <v>-609.11800000000005</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>59907.446030</v>
+        <v>59907.446029999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>16.640957</v>
       </c>
       <c r="BK16" s="1">
-        <v>1694.980000</v>
+        <v>1694.98</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1046.310000</v>
+        <v>-1046.31</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>59917.812417</v>
+        <v>59917.812417000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.643837</v>
+        <v>16.643837000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1992.610000</v>
+        <v>1992.61</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1800.410000</v>
+        <v>-1800.41</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>59928.429282</v>
+        <v>59928.429281999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.646786</v>
+        <v>16.646785999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2381.710000</v>
+        <v>2381.71</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2667.800000</v>
+        <v>-2667.8</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>59939.235655</v>
+        <v>59939.235654999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.649788</v>
+        <v>16.649788000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2868.810000</v>
+        <v>2868.81</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3605.390000</v>
+        <v>-3605.39</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>59951.518051</v>
+        <v>59951.518050999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.653199</v>
+        <v>16.653199000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4285.460000</v>
+        <v>4285.46</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5835.530000</v>
+        <v>-5835.53</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>59779.421692</v>
+        <v>59779.421692000004</v>
       </c>
       <c r="B17" s="1">
-        <v>16.605395</v>
+        <v>16.605395000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.870000</v>
+        <v>1248.8699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-303.812000</v>
+        <v>-303.81200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>59789.850569</v>
+        <v>59789.850569000002</v>
       </c>
       <c r="G17" s="1">
-        <v>16.608292</v>
+        <v>16.608291999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1273.430000</v>
+        <v>1273.43</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.664000</v>
+        <v>-261.66399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>59800.347899</v>
       </c>
       <c r="L17" s="1">
-        <v>16.611208</v>
+        <v>16.611208000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.980000</v>
+        <v>1306.98</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.823000</v>
+        <v>-200.82300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>59810.549085</v>
+        <v>59810.549084999999</v>
       </c>
       <c r="Q17" s="1">
         <v>16.614041</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.200000</v>
+        <v>1318.2</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.290000</v>
+        <v>-183.29</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>59821.028560</v>
+        <v>59821.028559999999</v>
       </c>
       <c r="V17" s="1">
-        <v>16.616952</v>
+        <v>16.616952000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.380000</v>
+        <v>1331.38</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.390000</v>
+        <v>-170.39</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>59831.574498</v>
+        <v>59831.574498000002</v>
       </c>
       <c r="AA17" s="1">
         <v>16.619882</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.650000</v>
+        <v>1348.65</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.003000</v>
+        <v>-169.00299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>59842.409109</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.622891</v>
+        <v>16.622890999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1361.820000</v>
+        <v>1361.82</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.966000</v>
+        <v>-178.96600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>59852.939206</v>
+        <v>59852.939206000003</v>
       </c>
       <c r="AK17" s="1">
         <v>16.625816</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.298000</v>
+        <v>-209.298</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>59863.788696</v>
+        <v>59863.788696000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.628830</v>
+        <v>16.628830000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.480000</v>
+        <v>1405.48</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.086000</v>
+        <v>-253.08600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>59874.843528</v>
+        <v>59874.843527999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.631901</v>
+        <v>16.631900999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.840000</v>
+        <v>1430.84</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.634000</v>
+        <v>-312.63400000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>59885.936523</v>
+        <v>59885.936522999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.634982</v>
+        <v>16.634982000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.233000</v>
+        <v>-364.233</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>59896.941757</v>
+        <v>59896.941757000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.638039</v>
+        <v>16.638038999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.083000</v>
+        <v>-609.08299999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>59907.879533</v>
+        <v>59907.879532999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>16.641078</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.980000</v>
+        <v>1694.98</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1046.240000</v>
+        <v>-1046.24</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>59918.235009</v>
+        <v>59918.235009000004</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.643954</v>
+        <v>16.643954000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1992.630000</v>
+        <v>1992.63</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1800.270000</v>
+        <v>-1800.27</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>59928.857329</v>
+        <v>59928.857328999999</v>
       </c>
       <c r="BT17" s="1">
         <v>16.646905</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.230000</v>
+        <v>2382.23</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2668.310000</v>
+        <v>-2668.31</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>59939.661189</v>
+        <v>59939.661188999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.649906</v>
+        <v>16.649906000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2868.230000</v>
+        <v>2868.23</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3604.360000</v>
+        <v>-3604.36</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>59952.060178</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.653350</v>
+        <v>16.65335</v>
       </c>
       <c r="CE17" s="1">
-        <v>4277.290000</v>
+        <v>4277.29</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5850.250000</v>
+        <v>-5850.25</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>59780.105673</v>
+        <v>59780.105672999998</v>
       </c>
       <c r="B18" s="1">
-        <v>16.605585</v>
+        <v>16.605585000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1249.180000</v>
+        <v>1249.18</v>
       </c>
       <c r="D18" s="1">
-        <v>-303.640000</v>
+        <v>-303.64</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>59790.195753</v>
       </c>
       <c r="G18" s="1">
-        <v>16.608388</v>
+        <v>16.608388000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1271.930000</v>
+        <v>1271.93</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.579000</v>
+        <v>-262.57900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>59800.693084</v>
+        <v>59800.693083999999</v>
       </c>
       <c r="L18" s="1">
-        <v>16.611304</v>
+        <v>16.611304000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.790000</v>
+        <v>1306.79</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.747000</v>
+        <v>-200.74700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>59810.897773</v>
+        <v>59810.897772999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.614138</v>
+        <v>16.614138000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.270000</v>
+        <v>1318.27</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.243000</v>
+        <v>-183.24299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>59821.373312</v>
+        <v>59821.373312000003</v>
       </c>
       <c r="V18" s="1">
         <v>16.617048</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.423000</v>
+        <v>-170.423</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>59832.238177</v>
+        <v>59832.238176999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.620066</v>
+        <v>16.620066000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.016000</v>
+        <v>-169.01599999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>59842.781137</v>
+        <v>59842.781136999998</v>
       </c>
       <c r="AF18" s="1">
         <v>16.622995</v>
       </c>
       <c r="AG18" s="1">
-        <v>1361.930000</v>
+        <v>1361.93</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.144000</v>
+        <v>-179.14400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>59853.320634</v>
+        <v>59853.320634000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.625922</v>
+        <v>16.625921999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.316000</v>
+        <v>-209.316</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>59864.179763</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.628939</v>
+        <v>16.628938999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.480000</v>
+        <v>1405.48</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.093000</v>
+        <v>-253.09299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>59875.205608</v>
+        <v>59875.205607999997</v>
       </c>
       <c r="AU18" s="1">
         <v>16.632002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.840000</v>
+        <v>1430.84</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.605000</v>
+        <v>-312.60500000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>59886.313977</v>
+        <v>59886.313976999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.635087</v>
+        <v>16.635086999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1450.760000</v>
+        <v>1450.76</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.224000</v>
+        <v>-364.22399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>59897.366368</v>
+        <v>59897.366368000003</v>
       </c>
       <c r="BE18" s="1">
         <v>16.638157</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.108000</v>
+        <v>-609.10799999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>59908.218301</v>
+        <v>59908.218301000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.641172</v>
+        <v>16.641172000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.990000</v>
+        <v>1694.99</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1046.250000</v>
+        <v>-1046.25</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>59918.631808</v>
+        <v>59918.631807999998</v>
       </c>
       <c r="BO18" s="1">
         <v>16.644064</v>
       </c>
       <c r="BP18" s="1">
-        <v>1992.580000</v>
+        <v>1992.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1800.230000</v>
+        <v>-1800.23</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>59929.268017</v>
+        <v>59929.268017000002</v>
       </c>
       <c r="BT18" s="1">
         <v>16.647019</v>
       </c>
       <c r="BU18" s="1">
-        <v>2383.030000</v>
+        <v>2383.0300000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2668.140000</v>
+        <v>-2668.14</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>59940.076834</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.650021</v>
+        <v>16.650020999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2868.540000</v>
+        <v>2868.54</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3604.710000</v>
+        <v>-3604.71</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>59952.602342</v>
+        <v>59952.602341999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.653501</v>
+        <v>16.653500999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4295.330000</v>
+        <v>4295.33</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5844.200000</v>
+        <v>-5844.2</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>59780.444901</v>
+        <v>59780.444901000003</v>
       </c>
       <c r="B19" s="1">
-        <v>16.605679</v>
+        <v>16.605678999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.560000</v>
+        <v>1248.56</v>
       </c>
       <c r="D19" s="1">
-        <v>-303.635000</v>
+        <v>-303.63499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>59790.539481</v>
@@ -4865,255 +5281,255 @@
         <v>16.608483</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.760000</v>
+        <v>1273.76</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.339000</v>
+        <v>-262.339</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>59801.040315</v>
+        <v>59801.040314999998</v>
       </c>
       <c r="L19" s="1">
-        <v>16.611400</v>
+        <v>16.6114</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.810000</v>
+        <v>1306.81</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.748000</v>
+        <v>-200.74799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>59811.551224</v>
+        <v>59811.551224000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.614320</v>
+        <v>16.614319999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.300000</v>
+        <v>1318.3</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.251000</v>
+        <v>-183.251</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>59822.065198</v>
+        <v>59822.065197999997</v>
       </c>
       <c r="V19" s="1">
-        <v>16.617240</v>
+        <v>16.617239999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.310000</v>
+        <v>1331.31</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.265000</v>
+        <v>-170.26499999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>59832.623572</v>
+        <v>59832.623571999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.620173</v>
+        <v>16.620173000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1348.740000</v>
+        <v>1348.74</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.183000</v>
+        <v>-169.18299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>59843.129300</v>
+        <v>59843.129300000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.623091</v>
+        <v>16.623090999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1361.860000</v>
+        <v>1361.86</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.128000</v>
+        <v>-179.12799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>59853.672757</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.626020</v>
+        <v>16.62602</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.312000</v>
+        <v>-209.31200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>59864.536632</v>
+        <v>59864.536632000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.629038</v>
+        <v>16.629038000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.470000</v>
+        <v>1405.47</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.090000</v>
+        <v>-253.09</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>59875.628201</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.632119</v>
+        <v>16.632118999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.850000</v>
+        <v>1430.85</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.636000</v>
+        <v>-312.63600000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>59886.758926</v>
+        <v>59886.758926000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.635211</v>
+        <v>16.635211000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.760000</v>
+        <v>1450.76</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.205000</v>
+        <v>-364.20499999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>59897.661948</v>
+        <v>59897.661948000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.638239</v>
+        <v>16.638238999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.200000</v>
+        <v>1538.2</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.137000</v>
+        <v>-609.13699999999994</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>59908.592616</v>
+        <v>59908.592616000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.641276</v>
+        <v>16.641276000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1046.280000</v>
+        <v>-1046.28</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>59919.053442</v>
+        <v>59919.053441999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.644182</v>
+        <v>16.644182000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1992.520000</v>
+        <v>1992.52</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1800.360000</v>
+        <v>-1800.36</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>59929.698078</v>
+        <v>59929.698078000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.647138</v>
+        <v>16.647138000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2383.750000</v>
+        <v>2383.75</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2667.970000</v>
+        <v>-2667.97</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>59940.523763</v>
+        <v>59940.523762999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.650145</v>
+        <v>16.650144999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2868.170000</v>
+        <v>2868.17</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3605.270000</v>
+        <v>-3605.27</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>59953.142450</v>
+        <v>59953.142449999999</v>
       </c>
       <c r="CD19" s="1">
         <v>16.653651</v>
       </c>
       <c r="CE19" s="1">
-        <v>4272.710000</v>
+        <v>4272.71</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5841.270000</v>
+        <v>-5841.27</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>59780.789621</v>
+        <v>59780.789621000004</v>
       </c>
       <c r="B20" s="1">
-        <v>16.605775</v>
+        <v>16.605775000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="D20" s="1">
-        <v>-303.920000</v>
+        <v>-303.92</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>59791.187284</v>
@@ -5122,375 +5538,375 @@
         <v>16.608663</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.440000</v>
+        <v>1273.44</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.756000</v>
+        <v>-261.75599999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>59801.700001</v>
+        <v>59801.700000999997</v>
       </c>
       <c r="L20" s="1">
         <v>16.611583</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.690000</v>
+        <v>1306.69</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.866000</v>
+        <v>-200.86600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>59811.943837</v>
+        <v>59811.943836999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.614429</v>
+        <v>16.614429000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.360000</v>
+        <v>1318.36</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.244000</v>
+        <v>-183.244</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>59822.402978</v>
+        <v>59822.402977999998</v>
       </c>
       <c r="V20" s="1">
         <v>16.617334</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.330000</v>
+        <v>1331.33</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.436000</v>
+        <v>-170.43600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>59832.972720</v>
+        <v>59832.972719999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.620270</v>
+        <v>16.620270000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.700000</v>
+        <v>1348.7</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.085000</v>
+        <v>-169.08500000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>59843.471570</v>
+        <v>59843.471570000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.623187</v>
+        <v>16.623187000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1361.910000</v>
+        <v>1361.91</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.022000</v>
+        <v>-179.02199999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>59854.021942</v>
+        <v>59854.021941999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.626117</v>
+        <v>16.626117000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.317000</v>
+        <v>-209.31700000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>59864.955787</v>
+        <v>59864.955786999999</v>
       </c>
       <c r="AP20" s="1">
         <v>16.629154</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.074000</v>
+        <v>-253.07400000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>59875.936680</v>
+        <v>59875.936679999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.632205</v>
+        <v>16.632204999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.840000</v>
+        <v>1430.84</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.647000</v>
+        <v>-312.64699999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>59887.031688</v>
+        <v>59887.031688000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.635287</v>
+        <v>16.635287000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.228000</v>
+        <v>-364.22800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>59898.024058</v>
+        <v>59898.024058000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.638340</v>
+        <v>16.638339999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.149000</v>
+        <v>-609.149</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>59908.969277</v>
+        <v>59908.969276999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.641380</v>
+        <v>16.641380000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.040000</v>
+        <v>1695.04</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1046.210000</v>
+        <v>-1046.21</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>59919.450241</v>
+        <v>59919.450240999999</v>
       </c>
       <c r="BO20" s="1">
         <v>16.644292</v>
       </c>
       <c r="BP20" s="1">
-        <v>1992.460000</v>
+        <v>1992.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1800.250000</v>
+        <v>-1800.25</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>59930.125599</v>
+        <v>59930.125598999999</v>
       </c>
       <c r="BT20" s="1">
         <v>16.647257</v>
       </c>
       <c r="BU20" s="1">
-        <v>2384.580000</v>
+        <v>2384.58</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2667.330000</v>
+        <v>-2667.33</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>59940.944833</v>
+        <v>59940.944833000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.650262</v>
+        <v>16.650262000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2868.880000</v>
+        <v>2868.88</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3604.990000</v>
+        <v>-3604.99</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>59953.679616</v>
+        <v>59953.679616000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.653800</v>
+        <v>16.6538</v>
       </c>
       <c r="CE20" s="1">
-        <v>4290.290000</v>
+        <v>4290.29</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5853.540000</v>
+        <v>-5853.54</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>59781.443844</v>
+        <v>59781.443844000001</v>
       </c>
       <c r="B21" s="1">
         <v>16.605957</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.970000</v>
+        <v>1248.97</v>
       </c>
       <c r="D21" s="1">
-        <v>-303.638000</v>
+        <v>-303.63799999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>59791.576615</v>
+        <v>59791.576614999998</v>
       </c>
       <c r="G21" s="1">
-        <v>16.608771</v>
+        <v>16.608771000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.500000</v>
+        <v>1273.5</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.142000</v>
+        <v>-261.142</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>59802.074441</v>
+        <v>59802.074440999997</v>
       </c>
       <c r="L21" s="1">
         <v>16.611687</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.560000</v>
+        <v>1306.56</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.582000</v>
+        <v>-200.58199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>59812.292555</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.614526</v>
+        <v>16.614526000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.390000</v>
+        <v>1318.39</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.227000</v>
+        <v>-183.227</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>59822.747694</v>
+        <v>59822.747693999998</v>
       </c>
       <c r="V21" s="1">
-        <v>16.617430</v>
+        <v>16.617429999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.340000</v>
+        <v>1331.34</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.452000</v>
+        <v>-170.452</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>59833.319952</v>
+        <v>59833.319951999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.620367</v>
+        <v>16.620367000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.510000</v>
+        <v>1348.51</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.030000</v>
+        <v>-169.03</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>59843.892146</v>
+        <v>59843.892145999998</v>
       </c>
       <c r="AF21" s="1">
         <v>16.623303</v>
       </c>
       <c r="AG21" s="1">
-        <v>1361.810000</v>
+        <v>1361.81</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.087000</v>
+        <v>-179.08699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>59854.455481</v>
+        <v>59854.455480999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.626238</v>
+        <v>16.626238000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>59865.256356</v>
+        <v>59865.256355999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.629238</v>
+        <v>16.629238000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.490000</v>
+        <v>1405.49</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.121000</v>
+        <v>-253.12100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>59876.300744</v>
@@ -5499,467 +5915,467 @@
         <v>16.632306</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.820000</v>
+        <v>1430.82</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.639000</v>
+        <v>-312.63900000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>59887.389800</v>
+        <v>59887.389799999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>16.635386</v>
       </c>
       <c r="BA21" s="1">
-        <v>1450.730000</v>
+        <v>1450.73</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.241000</v>
+        <v>-364.24099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>59898.389083</v>
+        <v>59898.389083000002</v>
       </c>
       <c r="BE21" s="1">
         <v>16.638441</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.160000</v>
+        <v>-609.16</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>59909.719194</v>
+        <v>59909.719193999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>16.641589</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.060000</v>
+        <v>1695.06</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1046.270000</v>
+        <v>-1046.27</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>59919.872798</v>
+        <v>59919.872797999997</v>
       </c>
       <c r="BO21" s="1">
         <v>16.644409</v>
       </c>
       <c r="BP21" s="1">
-        <v>1992.590000</v>
+        <v>1992.59</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1800.140000</v>
+        <v>-1800.14</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>59930.539292</v>
+        <v>59930.539292000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.647372</v>
+        <v>16.647372000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2385.400000</v>
+        <v>2385.4</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2666.790000</v>
+        <v>-2666.79</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>59941.368449</v>
+        <v>59941.368449000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.650380</v>
+        <v>16.650379999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2868.930000</v>
+        <v>2868.93</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3604.830000</v>
+        <v>-3604.83</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>59954.222736</v>
+        <v>59954.222736000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.653951</v>
+        <v>16.653950999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4280.720000</v>
+        <v>4280.72</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5834.000000</v>
+        <v>-5834</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>59781.811875</v>
+        <v>59781.811874999999</v>
       </c>
       <c r="B22" s="1">
-        <v>16.606059</v>
+        <v>16.606058999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.910000</v>
+        <v>1248.9100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-303.505000</v>
+        <v>-303.505</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>59791.920374</v>
+        <v>59791.920374000001</v>
       </c>
       <c r="G22" s="1">
         <v>16.608867</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.270000</v>
+        <v>1273.27</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.719000</v>
+        <v>-262.71899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>59802.422664</v>
+        <v>59802.422663999998</v>
       </c>
       <c r="L22" s="1">
         <v>16.611784</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.020000</v>
+        <v>1307.02</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.826000</v>
+        <v>-200.82599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>59812.640221</v>
+        <v>59812.640221000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.614622</v>
+        <v>16.614622000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.310000</v>
+        <v>1318.31</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.256000</v>
+        <v>-183.256</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>59823.172301</v>
+        <v>59823.172300999999</v>
       </c>
       <c r="V22" s="1">
-        <v>16.617548</v>
+        <v>16.617547999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.210000</v>
+        <v>1331.21</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.576000</v>
+        <v>-170.57599999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>59833.745984</v>
+        <v>59833.745984000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.620485</v>
+        <v>16.620484999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.810000</v>
+        <v>1348.81</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.355000</v>
+        <v>-169.35499999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>59844.170401</v>
+        <v>59844.170401000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.623381</v>
+        <v>16.623380999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1361.850000</v>
+        <v>1361.85</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.969000</v>
+        <v>-178.96899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>59854.727253</v>
+        <v>59854.727252999997</v>
       </c>
       <c r="AK22" s="1">
         <v>16.626313</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.305000</v>
+        <v>-209.30500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>59865.617414</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.629338</v>
+        <v>16.629338000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1405.510000</v>
+        <v>1405.51</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.077000</v>
+        <v>-253.077</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>59876.664808</v>
+        <v>59876.664808000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.632407</v>
+        <v>16.632407000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.880000</v>
+        <v>1430.88</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.627000</v>
+        <v>-312.62700000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>59888.049479</v>
+        <v>59888.049479000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.635569</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.201000</v>
+        <v>-364.20100000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>59899.108809</v>
+        <v>59899.108808999998</v>
       </c>
       <c r="BE22" s="1">
         <v>16.638641</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.121000</v>
+        <v>-609.12099999999998</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>59910.101114</v>
+        <v>59910.101113999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.641695</v>
+        <v>16.641694999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1694.990000</v>
+        <v>1694.99</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1046.180000</v>
+        <v>-1046.18</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>59920.271085</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.644520</v>
+        <v>16.64452</v>
       </c>
       <c r="BP22" s="1">
-        <v>1992.500000</v>
+        <v>1992.5</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1800.280000</v>
+        <v>-1800.28</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>59930.969295</v>
+        <v>59930.969295000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.647491</v>
+        <v>16.647490999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.300000</v>
+        <v>2385.3000000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2665.670000</v>
+        <v>-2665.67</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>59942.133745</v>
+        <v>59942.133744999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.650593</v>
+        <v>16.650593000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2867.980000</v>
+        <v>2867.98</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3605.040000</v>
+        <v>-3605.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>59954.759439</v>
+        <v>59954.759439000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.654100</v>
+        <v>16.6541</v>
       </c>
       <c r="CE22" s="1">
-        <v>4279.570000</v>
+        <v>4279.57</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5851.480000</v>
+        <v>-5851.48</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>59782.156595</v>
       </c>
       <c r="B23" s="1">
-        <v>16.606155</v>
+        <v>16.606155000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.860000</v>
+        <v>1248.8599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-303.400000</v>
+        <v>-303.39999999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>59792.264566</v>
+        <v>59792.264565999998</v>
       </c>
       <c r="G23" s="1">
-        <v>16.608962</v>
+        <v>16.608961999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.090000</v>
+        <v>1273.0899999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.975000</v>
+        <v>-261.97500000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>59802.768855</v>
+        <v>59802.768855000002</v>
       </c>
       <c r="L23" s="1">
-        <v>16.611880</v>
+        <v>16.611879999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.760000</v>
+        <v>1306.76</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.719000</v>
+        <v>-200.71899999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>59813.054876</v>
+        <v>59813.054876000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.614737</v>
+        <v>16.614737000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.270000</v>
+        <v>1318.27</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.229000</v>
+        <v>-183.22900000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>59823.459949</v>
+        <v>59823.459948999996</v>
       </c>
       <c r="V23" s="1">
         <v>16.617628</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.289000</v>
+        <v>-170.28899999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>59834.024766</v>
+        <v>59834.024766000002</v>
       </c>
       <c r="AA23" s="1">
         <v>16.620562</v>
       </c>
       <c r="AB23" s="1">
-        <v>1348.650000</v>
+        <v>1348.65</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.009000</v>
+        <v>-169.00899999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>59844.515152</v>
@@ -5968,118 +6384,118 @@
         <v>16.623476</v>
       </c>
       <c r="AG23" s="1">
-        <v>1361.930000</v>
+        <v>1361.93</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.148000</v>
+        <v>-179.148</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>59855.079908</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.626411</v>
+        <v>16.626411000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.294000</v>
+        <v>-209.29400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>59865.978500</v>
+        <v>59865.978499999997</v>
       </c>
       <c r="AP23" s="1">
         <v>16.629438</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.500000</v>
+        <v>1405.5</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.082000</v>
+        <v>-253.08199999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>59877.393461</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.632609</v>
+        <v>16.632608999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1430.820000</v>
+        <v>1430.82</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.654000</v>
+        <v>-312.654</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>59888.466151</v>
+        <v>59888.466151000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.635685</v>
+        <v>16.635684999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1450.740000</v>
+        <v>1450.74</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.223000</v>
+        <v>-364.22300000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>59899.472376</v>
+        <v>59899.472375999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.638742</v>
+        <v>16.638742000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.130000</v>
+        <v>1538.13</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.130000</v>
+        <v>-609.13</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>59910.474105</v>
+        <v>59910.474105000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.641798</v>
+        <v>16.641798000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.980000</v>
+        <v>1694.98</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1046.180000</v>
+        <v>-1046.18</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>59920.690701</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.644636</v>
+        <v>16.644635999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1992.630000</v>
+        <v>1992.63</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1800.130000</v>
+        <v>-1800.13</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>59931.707186</v>
@@ -6088,816 +6504,817 @@
         <v>16.647696</v>
       </c>
       <c r="BU23" s="1">
-        <v>2385.190000</v>
+        <v>2385.19</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2665.020000</v>
+        <v>-2665.02</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>59942.249313</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.650625</v>
+        <v>16.650625000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2868.120000</v>
+        <v>2868.12</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3604.300000</v>
+        <v>-3604.3</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>59955.301566</v>
+        <v>59955.301566000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.654250</v>
+        <v>16.654250000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4292.740000</v>
+        <v>4292.74</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5841.120000</v>
+        <v>-5841.12</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>59782.497843</v>
+        <v>59782.497842999997</v>
       </c>
       <c r="B24" s="1">
-        <v>16.606249</v>
+        <v>16.606248999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.870000</v>
+        <v>1248.8699999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-303.864000</v>
+        <v>-303.86399999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>59792.686262</v>
+        <v>59792.686262000003</v>
       </c>
       <c r="G24" s="1">
-        <v>16.609080</v>
+        <v>16.609079999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.800000</v>
+        <v>1272.8</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.156000</v>
+        <v>-262.15600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>59803.195895</v>
+        <v>59803.195894999997</v>
       </c>
       <c r="L24" s="1">
-        <v>16.611999</v>
+        <v>16.611999000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.830000</v>
+        <v>1306.83</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.797000</v>
+        <v>-200.797</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>59813.349996</v>
+        <v>59813.349995999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.614819</v>
+        <v>16.614819000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.280000</v>
+        <v>1318.28</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.217000</v>
+        <v>-183.21700000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>59823.804172</v>
+        <v>59823.804171999996</v>
       </c>
       <c r="V24" s="1">
-        <v>16.617723</v>
+        <v>16.617723000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.230000</v>
+        <v>1331.23</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.430000</v>
+        <v>-170.43</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>59834.375407</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.620660</v>
+        <v>16.620660000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.650000</v>
+        <v>1348.65</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.981000</v>
+        <v>-168.98099999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>59844.858849</v>
+        <v>59844.858848999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.623572</v>
+        <v>16.623571999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1361.850000</v>
+        <v>1361.85</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.139000</v>
+        <v>-179.13900000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>59855.773810</v>
+        <v>59855.773809999999</v>
       </c>
       <c r="AK24" s="1">
         <v>16.626604</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.297000</v>
+        <v>-209.297</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>59866.698705</v>
+        <v>59866.698705000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.629639</v>
+        <v>16.629639000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1405.470000</v>
+        <v>1405.47</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.098000</v>
+        <v>-253.09800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>59877.787748</v>
+        <v>59877.787748000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.632719</v>
+        <v>16.632719000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1430.860000</v>
+        <v>1430.86</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.616000</v>
+        <v>-312.61599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>59888.852007</v>
+        <v>59888.852007000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.635792</v>
+        <v>16.635791999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.750000</v>
+        <v>1450.75</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.241000</v>
+        <v>-364.24099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>59899.831449</v>
+        <v>59899.831448999998</v>
       </c>
       <c r="BE24" s="1">
         <v>16.638842</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.086000</v>
+        <v>-609.08600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>59911.145689</v>
+        <v>59911.145688999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.641985</v>
+        <v>16.641984999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.010000</v>
+        <v>1695.01</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1046.270000</v>
+        <v>-1046.27</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>59921.298827</v>
+        <v>59921.298826999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.644805</v>
+        <v>16.644805000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1992.590000</v>
+        <v>1992.59</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1800.180000</v>
+        <v>-1800.18</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>59931.844734</v>
+        <v>59931.844733999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.647735</v>
+        <v>16.647735000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2384.860000</v>
+        <v>2384.86</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2664.150000</v>
+        <v>-2664.15</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>59942.688767</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.650747</v>
+        <v>16.650746999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2868.420000</v>
+        <v>2868.42</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3604.740000</v>
+        <v>-3604.74</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>59955.843165</v>
+        <v>59955.843164999998</v>
       </c>
       <c r="CD24" s="1">
         <v>16.654401</v>
       </c>
       <c r="CE24" s="1">
-        <v>4272.930000</v>
+        <v>4272.93</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5842.270000</v>
+        <v>-5842.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>59782.917989</v>
+        <v>59782.917989000001</v>
       </c>
       <c r="B25" s="1">
-        <v>16.606366</v>
+        <v>16.606366000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1249.100000</v>
+        <v>1249.0999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-303.597000</v>
+        <v>-303.59699999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>59792.966444</v>
+        <v>59792.966443999998</v>
       </c>
       <c r="G25" s="1">
         <v>16.609157</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.520000</v>
+        <v>1272.52</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.100000</v>
+        <v>-263.10000000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>59803.475639</v>
+        <v>59803.475638999997</v>
       </c>
       <c r="L25" s="1">
-        <v>16.612077</v>
+        <v>16.612076999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.070000</v>
+        <v>1307.07</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.800000</v>
+        <v>-200.8</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>59813.695209</v>
+        <v>59813.695208999998</v>
       </c>
       <c r="Q25" s="1">
         <v>16.614915</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.300000</v>
+        <v>1318.3</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.091000</v>
+        <v>-183.09100000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>59824.148395</v>
+        <v>59824.148394999997</v>
       </c>
       <c r="V25" s="1">
-        <v>16.617819</v>
+        <v>16.617819000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.200000</v>
+        <v>1331.2</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.415000</v>
+        <v>-170.41499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>59834.723598</v>
+        <v>59834.723597999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.620757</v>
+        <v>16.620757000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.650000</v>
+        <v>1348.65</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.023000</v>
+        <v>-169.023</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>59845.545312</v>
+        <v>59845.545312000002</v>
       </c>
       <c r="AF25" s="1">
         <v>16.623763</v>
       </c>
       <c r="AG25" s="1">
-        <v>1361.830000</v>
+        <v>1361.83</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.097000</v>
+        <v>-179.09700000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>59856.123524</v>
+        <v>59856.123524000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.626701</v>
+        <v>16.626701000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.332000</v>
+        <v>-209.33199999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>59867.059816</v>
+        <v>59867.059816000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.629739</v>
+        <v>16.629739000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.490000</v>
+        <v>1405.49</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.050000</v>
+        <v>-253.05</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>59878.149364</v>
+        <v>59878.149363999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.632819</v>
+        <v>16.632819000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1430.850000</v>
+        <v>1430.85</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.659000</v>
+        <v>-312.65899999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>59889.521147</v>
+        <v>59889.521146999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.635978</v>
+        <v>16.635978000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.226000</v>
+        <v>-364.226</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>59900.507496</v>
+        <v>59900.507495999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.639030</v>
+        <v>16.639030000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.120000</v>
+        <v>1538.12</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.113000</v>
+        <v>-609.11300000000006</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>59911.256792</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.642016</v>
+        <v>16.642016000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.100000</v>
+        <v>1695.1</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1046.240000</v>
+        <v>-1046.24</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>59921.507935</v>
+        <v>59921.507935000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.644863</v>
+        <v>16.644863000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1992.550000</v>
+        <v>1992.55</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1800.080000</v>
+        <v>-1800.08</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>59932.254461</v>
+        <v>59932.254460999997</v>
       </c>
       <c r="BT25" s="1">
         <v>16.647848</v>
       </c>
       <c r="BU25" s="1">
-        <v>2384.300000</v>
+        <v>2384.3000000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2663.620000</v>
+        <v>-2663.62</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>59943.111893</v>
+        <v>59943.111893000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.650864</v>
+        <v>16.650863999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2868.810000</v>
+        <v>2868.81</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3603.970000</v>
+        <v>-3603.97</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>59956.379838</v>
+        <v>59956.379838000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.654550</v>
+        <v>16.65455</v>
       </c>
       <c r="CE25" s="1">
-        <v>4292.080000</v>
+        <v>4292.08</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5851.800000</v>
+        <v>-5851.8</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>59783.195746</v>
+        <v>59783.195745999998</v>
       </c>
       <c r="B26" s="1">
-        <v>16.606443</v>
+        <v>16.606442999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="D26" s="1">
-        <v>-303.567000</v>
+        <v>-303.56700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>59793.311620</v>
+        <v>59793.31162</v>
       </c>
       <c r="G26" s="1">
-        <v>16.609253</v>
+        <v>16.609252999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.440000</v>
+        <v>1273.44</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.578000</v>
+        <v>-261.57799999999997</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>59803.821385</v>
+        <v>59803.821385000003</v>
       </c>
       <c r="L26" s="1">
-        <v>16.612173</v>
+        <v>16.612172999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.790000</v>
+        <v>1306.79</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.749000</v>
+        <v>-200.749</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>59814.044427</v>
+        <v>59814.044427000001</v>
       </c>
       <c r="Q26" s="1">
         <v>16.615012</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.241000</v>
+        <v>-183.24100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>59824.836347</v>
+        <v>59824.836346999997</v>
       </c>
       <c r="V26" s="1">
-        <v>16.618010</v>
+        <v>16.618010000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.320000</v>
+        <v>1331.32</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.546000</v>
+        <v>-170.54599999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>59835.421470</v>
+        <v>59835.421470000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.620950</v>
+        <v>16.620950000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.700000</v>
+        <v>1348.7</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.080000</v>
+        <v>-169.08</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>59845.888557</v>
+        <v>59845.888556999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.623858</v>
+        <v>16.623857999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1361.770000</v>
+        <v>1361.77</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.082000</v>
+        <v>-179.08199999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>59856.474657</v>
+        <v>59856.474656999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.626799</v>
+        <v>16.626798999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.301000</v>
+        <v>-209.30099999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>59867.418884</v>
+        <v>59867.418883999999</v>
       </c>
       <c r="AP26" s="1">
         <v>16.629839</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.040000</v>
+        <v>-253.04</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>59878.821448</v>
+        <v>59878.821448000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.633006</v>
+        <v>16.633006000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1430.840000</v>
+        <v>1430.84</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.661000</v>
+        <v>-312.661</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>59889.936292</v>
+        <v>59889.936291999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.636093</v>
+        <v>16.636092999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.740000</v>
+        <v>1450.74</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.231000</v>
+        <v>-364.23099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>59900.934550</v>
+        <v>59900.934549999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.639148</v>
+        <v>16.639147999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.081000</v>
+        <v>-609.08100000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>59911.617385</v>
+        <v>59911.617384999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.642116</v>
+        <v>16.642116000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.020000</v>
+        <v>1695.02</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1046.210000</v>
+        <v>-1046.21</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>59921.901963</v>
+        <v>59921.901962999997</v>
       </c>
       <c r="BO26" s="1">
         <v>16.644973</v>
       </c>
       <c r="BP26" s="1">
-        <v>1992.570000</v>
+        <v>1992.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1800.060000</v>
+        <v>-1800.06</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>59932.679996</v>
+        <v>59932.679995999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.647967</v>
+        <v>16.647967000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2383.620000</v>
+        <v>2383.62</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2663.110000</v>
+        <v>-2663.11</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>59943.533453</v>
+        <v>59943.533452999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.650982</v>
+        <v>16.650981999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2868.150000</v>
+        <v>2868.15</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3604.350000</v>
+        <v>-3604.35</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>59956.922461</v>
+        <v>59956.922461000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.654701</v>
+        <v>16.654700999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4276.450000</v>
+        <v>4276.45</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5834.000000</v>
+        <v>-5834</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>